--- a/Turma Maio 2017/Aula 5/Procv 1 Aula Procv.xlsx
+++ b/Turma Maio 2017/Aula 5/Procv 1 Aula Procv.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="tabela de preço" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="aula5">'tabela de preço'!$A$1:$C$10</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Aline Carvalho</t>
   </si>
@@ -122,17 +126,28 @@
   </si>
   <si>
     <t>Função Procv</t>
+  </si>
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>CURSO</t>
+  </si>
+  <si>
+    <t>MENSALIDADE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +167,26 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -180,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -289,11 +324,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,8 +361,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,20 +407,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1"/>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6336195" y="0"/>
-          <a:ext cx="1176131" cy="361629"/>
+          <a:off x="6337023" y="0"/>
+          <a:ext cx="1169505" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png"/>
+          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -403,7 +472,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png"/>
+          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -468,7 +543,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Texto explicativo retangular 4"/>
+        <xdr:cNvPr id="5" name="Texto explicativo retangular 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -538,6 +619,17 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CÓDIGO</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>CURSO</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>MENSALIDADE</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="A2">
             <v>1</v>
@@ -646,7 +738,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -684,7 +776,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -719,6 +811,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -754,9 +863,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -932,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1136,15 @@
         <v>24</v>
       </c>
       <c r="E9" s="9">
-        <f>VLOOKUP(C9,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C9,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(C9,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(C9,aula5,3,0)</f>
         <v>180</v>
       </c>
     </row>
@@ -1025,7 +1159,15 @@
         <v>25</v>
       </c>
       <c r="E10" s="9">
-        <f>VLOOKUP(C10,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C10,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(C10,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(C10,aula5,3,0)</f>
         <v>270</v>
       </c>
     </row>
@@ -1040,7 +1182,15 @@
         <v>24</v>
       </c>
       <c r="E11" s="9">
-        <f>VLOOKUP(C11,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C11,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(C11,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(C11,aula5,3,0)</f>
         <v>180</v>
       </c>
     </row>
@@ -1055,7 +1205,15 @@
         <v>25</v>
       </c>
       <c r="E12" s="9">
-        <f>VLOOKUP(C12,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C12,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(C12,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(C12,aula5,3,0)</f>
         <v>270</v>
       </c>
     </row>
@@ -1070,7 +1228,15 @@
         <v>26</v>
       </c>
       <c r="E13" s="9">
-        <f>VLOOKUP(C13,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C13,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(C13,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(C13,aula5,3,0)</f>
         <v>150</v>
       </c>
     </row>
@@ -1085,7 +1251,15 @@
         <v>27</v>
       </c>
       <c r="E14" s="9">
-        <f>VLOOKUP(C14,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C14,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(C14,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(C14,aula5,3,0)</f>
         <v>130</v>
       </c>
     </row>
@@ -1100,7 +1274,15 @@
         <v>26</v>
       </c>
       <c r="E15" s="9">
-        <f>VLOOKUP(C15,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C15,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(C15,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(C15,aula5,3,0)</f>
         <v>150</v>
       </c>
     </row>
@@ -1115,11 +1297,19 @@
         <v>27</v>
       </c>
       <c r="E16" s="9">
-        <f>VLOOKUP(C16,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C16,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f>VLOOKUP(C16,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(C16,aula5,3,0)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1130,11 +1320,19 @@
         <v>32</v>
       </c>
       <c r="E17" s="9">
-        <f>VLOOKUP(C17,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C17,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>230</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f>VLOOKUP(C17,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(C17,aula5,3,0)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,11 +1343,19 @@
         <v>32</v>
       </c>
       <c r="E18" s="9">
-        <f>VLOOKUP(C18,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C18,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>230</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <f>VLOOKUP(C18,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(C18,aula5,3,0)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,11 +1366,19 @@
         <v>25</v>
       </c>
       <c r="E19" s="9">
-        <f>VLOOKUP(C19,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C19,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <f>VLOOKUP(C19,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(C19,aula5,3,0)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1175,11 +1389,19 @@
         <v>28</v>
       </c>
       <c r="E20" s="9">
-        <f>VLOOKUP(C20,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C20,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <f>VLOOKUP(C20,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(C20,aula5,3,0)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1190,11 +1412,19 @@
         <v>32</v>
       </c>
       <c r="E21" s="9">
-        <f>VLOOKUP(C21,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C21,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>230</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <f>VLOOKUP(C21,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(C21,aula5,3,0)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1205,11 +1435,19 @@
         <v>24</v>
       </c>
       <c r="E22" s="9">
-        <f>VLOOKUP(C22,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C22,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f>VLOOKUP(C22,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(C22,aula5,3,0)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1220,11 +1458,19 @@
         <v>25</v>
       </c>
       <c r="E23" s="9">
-        <f>VLOOKUP(C23,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C23,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f>VLOOKUP(C23,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(C23,aula5,3,0)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,11 +1481,19 @@
         <v>27</v>
       </c>
       <c r="E24" s="9">
-        <f>VLOOKUP(C24,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C24,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f>VLOOKUP(C24,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(C24,aula5,3,0)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1250,11 +1504,19 @@
         <v>29</v>
       </c>
       <c r="E25" s="9">
-        <f>VLOOKUP(C25,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C25,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>280</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f>VLOOKUP(C25,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>280</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(C25,aula5,3,0)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,11 +1527,19 @@
         <v>26</v>
       </c>
       <c r="E26" s="9">
-        <f>VLOOKUP(C26,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C26,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <f>VLOOKUP(C26,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(C26,aula5,3,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1280,11 +1550,19 @@
         <v>28</v>
       </c>
       <c r="E27" s="9">
-        <f>VLOOKUP(C27,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C27,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>217</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <f>VLOOKUP(C27,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(C27,aula5,3,0)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,11 +1573,19 @@
         <v>30</v>
       </c>
       <c r="E28" s="9">
-        <f>VLOOKUP(C28,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C28,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <f>VLOOKUP(C28,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(C28,aula5,3,0)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1310,11 +1596,19 @@
         <v>31</v>
       </c>
       <c r="E29" s="9">
-        <f>VLOOKUP(C29,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <f>VLOOKUP(C29,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F29">
+        <f>VLOOKUP(C29,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
+        <v>170</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(C29,aula5,3,0)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:H6"/>
@@ -1323,4 +1617,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Turma Maio 2017/Aula 5/Procv 1 Aula Procv.xlsx
+++ b/Turma Maio 2017/Aula 5/Procv 1 Aula Procv.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="tabela de preço" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="aula5">'tabela de preço'!$A$1:$C$10</definedName>
   </definedNames>
@@ -21,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Aline Carvalho</t>
   </si>
@@ -215,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -284,36 +281,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="0"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
@@ -344,28 +313,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -609,130 +576,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Plan1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>CÓDIGO</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>CURSO</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>MENSALIDADE</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Inglês Básico</v>
-          </cell>
-          <cell r="C2">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Inglês Intermediário</v>
-          </cell>
-          <cell r="C3">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Inglês Avançado</v>
-          </cell>
-          <cell r="C4">
-            <v>270</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Espanhol Básico</v>
-          </cell>
-          <cell r="C5">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Espanhol Intermediário</v>
-          </cell>
-          <cell r="C6">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Espanhol Avançado</v>
-          </cell>
-          <cell r="C7">
-            <v>230</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Francês Básico</v>
-          </cell>
-          <cell r="C8">
-            <v>170</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Francês Intermediário</v>
-          </cell>
-          <cell r="C9">
-            <v>217</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Francês Avançado</v>
-          </cell>
-          <cell r="C10">
-            <v>280</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,46 +915,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1129,22 +972,15 @@
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9">
-        <f>VLOOKUP(C9,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
-        <v>180</v>
-      </c>
-      <c r="F9">
-        <f>VLOOKUP(C9,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>180</v>
-      </c>
-      <c r="G9">
-        <f>VLOOKUP(C9,aula5,3,0)</f>
+      <c r="D9" s="3" t="str">
+        <f>VLOOKUP(C9,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Intermediário</v>
+      </c>
+      <c r="E9" s="7">
+        <f>VLOOKUP(C9,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>180</v>
       </c>
     </row>
@@ -1152,22 +988,15 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9">
-        <f>VLOOKUP(C10,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
-      <c r="F10">
-        <f>VLOOKUP(C10,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
-      <c r="G10">
-        <f>VLOOKUP(C10,aula5,3,0)</f>
+      <c r="D10" s="3" t="str">
+        <f>VLOOKUP(C10,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Avançado</v>
+      </c>
+      <c r="E10" s="7">
+        <f>VLOOKUP(C10,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>270</v>
       </c>
     </row>
@@ -1175,22 +1004,15 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9">
-        <f>VLOOKUP(C11,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
-        <v>180</v>
-      </c>
-      <c r="F11">
-        <f>VLOOKUP(C11,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>180</v>
-      </c>
-      <c r="G11">
-        <f>VLOOKUP(C11,aula5,3,0)</f>
+      <c r="D11" s="3" t="str">
+        <f>VLOOKUP(C11,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Intermediário</v>
+      </c>
+      <c r="E11" s="7">
+        <f>VLOOKUP(C11,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>180</v>
       </c>
     </row>
@@ -1198,22 +1020,15 @@
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9">
-        <f>VLOOKUP(C12,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
-      <c r="F12">
-        <f>VLOOKUP(C12,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
-      <c r="G12">
-        <f>VLOOKUP(C12,aula5,3,0)</f>
+      <c r="D12" s="3" t="str">
+        <f>VLOOKUP(C12,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Avançado</v>
+      </c>
+      <c r="E12" s="7">
+        <f>VLOOKUP(C12,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>270</v>
       </c>
     </row>
@@ -1221,22 +1036,15 @@
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="9">
-        <f>VLOOKUP(C13,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
-        <v>150</v>
-      </c>
-      <c r="F13">
-        <f>VLOOKUP(C13,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>150</v>
-      </c>
-      <c r="G13">
-        <f>VLOOKUP(C13,aula5,3,0)</f>
+      <c r="D13" s="3" t="str">
+        <f>VLOOKUP(C13,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Básico</v>
+      </c>
+      <c r="E13" s="7">
+        <f>VLOOKUP(C13,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>150</v>
       </c>
     </row>
@@ -1244,22 +1052,15 @@
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9">
-        <f>VLOOKUP(C14,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
-        <v>130</v>
-      </c>
-      <c r="F14">
-        <f>VLOOKUP(C14,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>130</v>
-      </c>
-      <c r="G14">
-        <f>VLOOKUP(C14,aula5,3,0)</f>
+      <c r="D14" s="3" t="str">
+        <f>VLOOKUP(C14,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Espanhol Básico</v>
+      </c>
+      <c r="E14" s="7">
+        <f>VLOOKUP(C14,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>130</v>
       </c>
     </row>
@@ -1267,22 +1068,15 @@
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="9">
-        <f>VLOOKUP(C15,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
-        <v>150</v>
-      </c>
-      <c r="F15">
-        <f>VLOOKUP(C15,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>150</v>
-      </c>
-      <c r="G15">
-        <f>VLOOKUP(C15,aula5,3,0)</f>
+      <c r="D15" s="3" t="str">
+        <f>VLOOKUP(C15,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Básico</v>
+      </c>
+      <c r="E15" s="7">
+        <f>VLOOKUP(C15,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>150</v>
       </c>
     </row>
@@ -1290,325 +1084,227 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="9">
-        <f>VLOOKUP(C16,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D16" s="3" t="str">
+        <f>VLOOKUP(C16,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Espanhol Básico</v>
+      </c>
+      <c r="E16" s="7">
+        <f>VLOOKUP(C16,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>130</v>
       </c>
-      <c r="F16">
-        <f>VLOOKUP(C16,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>130</v>
-      </c>
-      <c r="G16">
-        <f>VLOOKUP(C16,aula5,3,0)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>6</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="9">
-        <f>VLOOKUP(C17,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D17" s="3" t="str">
+        <f>VLOOKUP(C17,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Espanhol Avançado</v>
+      </c>
+      <c r="E17" s="7">
+        <f>VLOOKUP(C17,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>230</v>
       </c>
-      <c r="F17">
-        <f>VLOOKUP(C17,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>230</v>
-      </c>
-      <c r="G17">
-        <f>VLOOKUP(C17,aula5,3,0)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>6</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="9">
-        <f>VLOOKUP(C18,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D18" s="3" t="str">
+        <f>VLOOKUP(C18,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Espanhol Avançado</v>
+      </c>
+      <c r="E18" s="7">
+        <f>VLOOKUP(C18,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>230</v>
       </c>
-      <c r="F18">
-        <f>VLOOKUP(C18,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>230</v>
-      </c>
-      <c r="G18">
-        <f>VLOOKUP(C18,aula5,3,0)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="9">
-        <f>VLOOKUP(C19,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D19" s="3" t="str">
+        <f>VLOOKUP(C19,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Avançado</v>
+      </c>
+      <c r="E19" s="7">
+        <f>VLOOKUP(C19,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>270</v>
       </c>
-      <c r="F19">
-        <f>VLOOKUP(C19,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
-      <c r="G19">
-        <f>VLOOKUP(C19,aula5,3,0)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="9">
-        <f>VLOOKUP(C20,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D20" s="3" t="str">
+        <f>VLOOKUP(C20,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Francês Intermediário</v>
+      </c>
+      <c r="E20" s="7">
+        <f>VLOOKUP(C20,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>217</v>
       </c>
-      <c r="F20">
-        <f>VLOOKUP(C20,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>217</v>
-      </c>
-      <c r="G20">
-        <f>VLOOKUP(C20,aula5,3,0)</f>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>6</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="9">
-        <f>VLOOKUP(C21,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D21" s="3" t="str">
+        <f>VLOOKUP(C21,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Espanhol Avançado</v>
+      </c>
+      <c r="E21" s="7">
+        <f>VLOOKUP(C21,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>230</v>
       </c>
-      <c r="F21">
-        <f>VLOOKUP(C21,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>230</v>
-      </c>
-      <c r="G21">
-        <f>VLOOKUP(C21,aula5,3,0)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="9">
-        <f>VLOOKUP(C22,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D22" s="3" t="str">
+        <f>VLOOKUP(C22,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Intermediário</v>
+      </c>
+      <c r="E22" s="7">
+        <f>VLOOKUP(C22,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>180</v>
       </c>
-      <c r="F22">
-        <f>VLOOKUP(C22,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>180</v>
-      </c>
-      <c r="G22">
-        <f>VLOOKUP(C22,aula5,3,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="9">
-        <f>VLOOKUP(C23,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D23" s="3" t="str">
+        <f>VLOOKUP(C23,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Avançado</v>
+      </c>
+      <c r="E23" s="7">
+        <f>VLOOKUP(C23,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>270</v>
       </c>
-      <c r="F23">
-        <f>VLOOKUP(C23,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>270</v>
-      </c>
-      <c r="G23">
-        <f>VLOOKUP(C23,aula5,3,0)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>4</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="9">
-        <f>VLOOKUP(C24,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D24" s="3" t="str">
+        <f>VLOOKUP(C24,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Espanhol Básico</v>
+      </c>
+      <c r="E24" s="7">
+        <f>VLOOKUP(C24,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>130</v>
       </c>
-      <c r="F24">
-        <f>VLOOKUP(C24,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>130</v>
-      </c>
-      <c r="G24">
-        <f>VLOOKUP(C24,aula5,3,0)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>9</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="9">
-        <f>VLOOKUP(C25,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D25" s="3" t="str">
+        <f>VLOOKUP(C25,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Francês Avançado</v>
+      </c>
+      <c r="E25" s="7">
+        <f>VLOOKUP(C25,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>280</v>
       </c>
-      <c r="F25">
-        <f>VLOOKUP(C25,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>280</v>
-      </c>
-      <c r="G25">
-        <f>VLOOKUP(C25,aula5,3,0)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="9">
-        <f>VLOOKUP(C26,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D26" s="3" t="str">
+        <f>VLOOKUP(C26,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Inglês Básico</v>
+      </c>
+      <c r="E26" s="7">
+        <f>VLOOKUP(C26,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>150</v>
       </c>
-      <c r="F26">
-        <f>VLOOKUP(C26,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>150</v>
-      </c>
-      <c r="G26">
-        <f>VLOOKUP(C26,aula5,3,0)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>8</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="9">
-        <f>VLOOKUP(C27,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D27" s="3" t="str">
+        <f>VLOOKUP(C27,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Francês Intermediário</v>
+      </c>
+      <c r="E27" s="7">
+        <f>VLOOKUP(C27,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>217</v>
       </c>
-      <c r="F27">
-        <f>VLOOKUP(C27,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>217</v>
-      </c>
-      <c r="G27">
-        <f>VLOOKUP(C27,aula5,3,0)</f>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>5</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="9">
-        <f>VLOOKUP(C28,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D28" s="3" t="str">
+        <f>VLOOKUP(C28,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Espanhol Intermediário</v>
+      </c>
+      <c r="E28" s="7">
+        <f>VLOOKUP(C28,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>180</v>
       </c>
-      <c r="F28">
-        <f>VLOOKUP(C28,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>180</v>
-      </c>
-      <c r="G28">
-        <f>VLOOKUP(C28,aula5,3,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>7</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="9">
-        <f>VLOOKUP(C29,[1]Plan1!$A$1:$C$10,3,FALSE)</f>
+      <c r="D29" s="3" t="str">
+        <f>VLOOKUP(C29,'tabela de preço'!$A$2:$C$10,2,0)</f>
+        <v>Francês Básico</v>
+      </c>
+      <c r="E29" s="7">
+        <f>VLOOKUP(C29,'tabela de preço'!$A$2:$C$10,3,0)</f>
         <v>170</v>
       </c>
-      <c r="F29">
-        <f>VLOOKUP(C29,'tabela de preço'!$A$1:$C$10,3,FALSE)</f>
-        <v>170</v>
-      </c>
-      <c r="G29">
-        <f>VLOOKUP(C29,aula5,3,0)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:H6"/>
@@ -1634,112 +1330,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>280</v>
       </c>
     </row>
